--- a/МИТ.xlsx
+++ b/МИТ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oneof\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{9BDBE093-FD2C-4DBD-A0C9-2D6409D04B4D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{318635D8-25A8-4DFC-ABED-D0CE66BBA8CA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{30BE25E5-4C79-444E-BE2C-558AA4C69AE0}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="22">
   <si>
     <t>Филиппова Айыына</t>
   </si>
@@ -78,13 +78,19 @@
     <t>++</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>н</t>
   </si>
   <si>
     <t>нн</t>
+  </si>
+  <si>
+    <t>1 практика</t>
+  </si>
+  <si>
+    <t>2 практика</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -101,15 +107,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -117,11 +129,91 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -134,6 +226,61 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -448,10 +595,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1E048D8-2C86-4671-AA2A-04EA61F96C7F}">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -460,9 +607,10 @@
     <col min="2" max="3" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.140625" customWidth="1"/>
     <col min="8" max="8" width="10.28515625" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="1">
         <v>43363</v>
       </c>
@@ -481,8 +629,20 @@
       <c r="G1" s="3">
         <v>43377</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="5">
+        <v>1</v>
+      </c>
+      <c r="I1" s="5">
+        <v>2</v>
+      </c>
+      <c r="J1" s="5">
+        <v>3</v>
+      </c>
+      <c r="K1" s="1">
+        <v>43378</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -492,12 +652,32 @@
       <c r="C2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="2"/>
+      <c r="D2" s="16">
+        <v>14</v>
+      </c>
+      <c r="E2" s="17">
+        <v>11</v>
+      </c>
+      <c r="F2" s="6">
+        <v>1</v>
+      </c>
       <c r="G2" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="H2" s="16">
+        <v>6</v>
+      </c>
+      <c r="I2" s="17">
+        <v>13</v>
+      </c>
+      <c r="J2" s="6">
+        <v>11</v>
+      </c>
+      <c r="K2" s="18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -507,20 +687,32 @@
       <c r="C3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>17</v>
+      <c r="D3" s="7">
+        <v>2</v>
+      </c>
+      <c r="E3" s="8">
+        <v>12</v>
+      </c>
+      <c r="F3" s="9">
+        <v>15</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" s="7">
+        <v>15</v>
+      </c>
+      <c r="I3" s="15">
+        <v>6</v>
+      </c>
+      <c r="J3" s="9">
+        <v>10</v>
+      </c>
+      <c r="K3" s="18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -530,20 +722,32 @@
       <c r="C4" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>17</v>
+      <c r="D4" s="13">
+        <v>13</v>
+      </c>
+      <c r="E4" s="14">
+        <v>14</v>
+      </c>
+      <c r="F4" s="12">
+        <v>2</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" s="7">
+        <v>14</v>
+      </c>
+      <c r="I4" s="15">
+        <v>15</v>
+      </c>
+      <c r="J4" s="9">
+        <v>3</v>
+      </c>
+      <c r="K4" s="18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -553,14 +757,32 @@
       <c r="C5" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+      <c r="D5" s="7">
+        <v>8</v>
+      </c>
+      <c r="E5" s="8">
+        <v>5</v>
+      </c>
+      <c r="F5" s="9">
+        <v>4</v>
+      </c>
       <c r="G5" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="H5" s="7">
+        <v>2</v>
+      </c>
+      <c r="I5" s="15">
+        <v>3</v>
+      </c>
+      <c r="J5" s="9">
+        <v>13</v>
+      </c>
+      <c r="K5" s="18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -570,20 +792,32 @@
       <c r="C6" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>17</v>
+      <c r="D6" s="13">
+        <v>10</v>
+      </c>
+      <c r="E6" s="14">
+        <v>13</v>
+      </c>
+      <c r="F6" s="12">
+        <v>11</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" s="13">
+        <v>7</v>
+      </c>
+      <c r="I6" s="15">
+        <v>1</v>
+      </c>
+      <c r="J6" s="9">
+        <v>12</v>
+      </c>
+      <c r="K6" s="18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -593,14 +827,32 @@
       <c r="C7" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
+      <c r="D7" s="13">
+        <v>7</v>
+      </c>
+      <c r="E7" s="14">
+        <v>8</v>
+      </c>
+      <c r="F7" s="12">
+        <v>6</v>
+      </c>
       <c r="G7" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7" s="13">
+        <v>9</v>
+      </c>
+      <c r="I7" s="14">
+        <v>2</v>
+      </c>
+      <c r="J7" s="12">
+        <v>15</v>
+      </c>
+      <c r="K7" s="18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -610,20 +862,32 @@
       <c r="C8" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>17</v>
+      <c r="D8" s="13">
+        <v>9</v>
+      </c>
+      <c r="E8" s="14">
+        <v>3</v>
+      </c>
+      <c r="F8" s="12">
+        <v>12</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8" s="13">
+        <v>4</v>
+      </c>
+      <c r="I8" s="14">
+        <v>5</v>
+      </c>
+      <c r="J8" s="9">
+        <v>9</v>
+      </c>
+      <c r="K8" s="18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -633,20 +897,32 @@
       <c r="C9" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>17</v>
+      <c r="D9" s="13">
+        <v>12</v>
+      </c>
+      <c r="E9" s="14">
+        <v>1</v>
+      </c>
+      <c r="F9" s="12">
+        <v>5</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9" s="7">
+        <v>5</v>
+      </c>
+      <c r="I9" s="15">
+        <v>14</v>
+      </c>
+      <c r="J9" s="9">
+        <v>7</v>
+      </c>
+      <c r="K9" s="18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -656,20 +932,32 @@
       <c r="C10" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="2">
+      <c r="D10" s="13">
+        <v>5</v>
+      </c>
+      <c r="E10" s="14">
+        <v>7</v>
+      </c>
+      <c r="F10" s="12">
         <v>10</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10" s="13">
+        <v>11</v>
+      </c>
+      <c r="I10" s="14">
+        <v>12</v>
+      </c>
+      <c r="J10" s="12">
+        <v>6</v>
+      </c>
+      <c r="K10" s="18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -679,20 +967,32 @@
       <c r="C11" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>17</v>
+      <c r="D11" s="13">
+        <v>11</v>
+      </c>
+      <c r="E11" s="14">
+        <v>4</v>
+      </c>
+      <c r="F11" s="12">
+        <v>9</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11" s="7">
+        <v>10</v>
+      </c>
+      <c r="I11" s="15">
+        <v>4</v>
+      </c>
+      <c r="J11" s="9">
+        <v>14</v>
+      </c>
+      <c r="K11" s="18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -702,20 +1002,32 @@
       <c r="C12" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="13">
         <v>6</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="14">
         <v>10</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="12">
         <v>13</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12" s="13">
+        <v>13</v>
+      </c>
+      <c r="I12" s="14">
+        <v>7</v>
+      </c>
+      <c r="J12" s="12">
+        <v>5</v>
+      </c>
+      <c r="K12" s="18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -723,22 +1035,34 @@
         <v>12</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="D13" s="7">
+        <v>4</v>
+      </c>
+      <c r="E13" s="14">
+        <v>6</v>
+      </c>
+      <c r="F13" s="9">
+        <v>3</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13" s="13">
+        <v>12</v>
+      </c>
+      <c r="I13" s="14">
+        <v>11</v>
+      </c>
+      <c r="J13" s="9">
+        <v>8</v>
+      </c>
+      <c r="K13" s="18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -748,20 +1072,32 @@
       <c r="C14" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>17</v>
+      <c r="D14" s="13">
+        <v>15</v>
+      </c>
+      <c r="E14" s="14">
+        <v>2</v>
+      </c>
+      <c r="F14" s="9">
+        <v>14</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14" s="7">
+        <v>3</v>
+      </c>
+      <c r="I14" s="15">
+        <v>8</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K14" s="18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -771,20 +1107,32 @@
       <c r="C15" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="13">
         <v>3</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="14">
         <v>9</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="12">
         <v>8</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H15" s="7">
+        <v>8</v>
+      </c>
+      <c r="I15" s="15">
+        <v>10</v>
+      </c>
+      <c r="J15" s="9">
+        <v>1</v>
+      </c>
+      <c r="K15" s="18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -794,33 +1142,58 @@
       <c r="C16" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>17</v>
+      <c r="D16" s="19">
+        <v>1</v>
+      </c>
+      <c r="E16" s="10">
+        <v>15</v>
+      </c>
+      <c r="F16" s="21">
+        <v>7</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H16" s="19">
+        <v>1</v>
+      </c>
+      <c r="I16" s="20">
+        <v>9</v>
+      </c>
+      <c r="J16" s="11">
+        <v>4</v>
+      </c>
+      <c r="K16" s="18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D17" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
       <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H17" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="H17:J17"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/МИТ.xlsx
+++ b/МИТ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oneof\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{318635D8-25A8-4DFC-ABED-D0CE66BBA8CA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{19666CDD-5273-4361-8EC4-E2399F1F1941}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{30BE25E5-4C79-444E-BE2C-558AA4C69AE0}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="22">
   <si>
     <t>Филиппова Айыына</t>
   </si>
@@ -90,7 +90,7 @@
     <t>2 практика</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>3 практика</t>
   </si>
 </sst>
 </file>
@@ -213,7 +213,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -280,7 +280,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -595,10 +604,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1E048D8-2C86-4671-AA2A-04EA61F96C7F}">
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -608,9 +617,11 @@
     <col min="7" max="7" width="10.140625" customWidth="1"/>
     <col min="8" max="8" width="10.28515625" customWidth="1"/>
     <col min="11" max="11" width="10.7109375" customWidth="1"/>
+    <col min="12" max="12" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="1">
         <v>43363</v>
       </c>
@@ -641,8 +652,20 @@
       <c r="K1" s="1">
         <v>43378</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1" s="3">
+        <v>43385</v>
+      </c>
+      <c r="M1" s="5">
+        <v>1</v>
+      </c>
+      <c r="N1" s="5">
+        <v>2</v>
+      </c>
+      <c r="O1" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -676,8 +699,20 @@
       <c r="K2" s="18" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L2" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" s="16">
+        <v>1</v>
+      </c>
+      <c r="N2" s="23">
+        <v>9</v>
+      </c>
+      <c r="O2" s="6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -711,8 +746,20 @@
       <c r="K3" s="18" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L3" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" s="7">
+        <v>3</v>
+      </c>
+      <c r="N3" s="15">
+        <v>9</v>
+      </c>
+      <c r="O3" s="9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -746,8 +793,20 @@
       <c r="K4" s="18" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L4" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="M4" s="7">
+        <v>2</v>
+      </c>
+      <c r="N4" s="15">
+        <v>7</v>
+      </c>
+      <c r="O4" s="9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -781,8 +840,20 @@
       <c r="K5" s="18" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L5" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="M5" s="7">
+        <v>4</v>
+      </c>
+      <c r="N5" s="15">
+        <v>9</v>
+      </c>
+      <c r="O5" s="9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -807,17 +878,29 @@
       <c r="H6" s="13">
         <v>7</v>
       </c>
-      <c r="I6" s="15">
+      <c r="I6" s="14">
         <v>1</v>
       </c>
-      <c r="J6" s="9">
+      <c r="J6" s="12">
         <v>12</v>
       </c>
       <c r="K6" s="18" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L6" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="M6" s="7">
+        <v>1</v>
+      </c>
+      <c r="N6" s="15">
+        <v>7</v>
+      </c>
+      <c r="O6" s="9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -851,8 +934,20 @@
       <c r="K7" s="18" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L7" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="M7" s="13">
+        <v>5</v>
+      </c>
+      <c r="N7" s="15">
+        <v>6</v>
+      </c>
+      <c r="O7" s="9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -880,14 +975,26 @@
       <c r="I8" s="14">
         <v>5</v>
       </c>
-      <c r="J8" s="9">
+      <c r="J8" s="12">
         <v>9</v>
       </c>
       <c r="K8" s="18" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L8" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="M8" s="7">
+        <v>3</v>
+      </c>
+      <c r="N8" s="15">
+        <v>7</v>
+      </c>
+      <c r="O8" s="9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -909,20 +1016,32 @@
       <c r="G9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="13">
         <v>5</v>
       </c>
-      <c r="I9" s="15">
+      <c r="I9" s="14">
         <v>14</v>
       </c>
-      <c r="J9" s="9">
+      <c r="J9" s="12">
         <v>7</v>
       </c>
       <c r="K9" s="18" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L9" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="M9" s="7">
+        <v>2</v>
+      </c>
+      <c r="N9" s="15">
+        <v>8</v>
+      </c>
+      <c r="O9" s="9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -956,8 +1075,20 @@
       <c r="K10" s="18" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L10" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="M10" s="7">
+        <v>1</v>
+      </c>
+      <c r="N10" s="15">
+        <v>10</v>
+      </c>
+      <c r="O10" s="9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -991,8 +1122,20 @@
       <c r="K11" s="18" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L11" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="M11" s="7">
+        <v>5</v>
+      </c>
+      <c r="N11" s="15">
+        <v>6</v>
+      </c>
+      <c r="O11" s="9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1026,8 +1169,20 @@
       <c r="K12" s="18" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L12" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="M12" s="7">
+        <v>2</v>
+      </c>
+      <c r="N12" s="15">
+        <v>8</v>
+      </c>
+      <c r="O12" s="9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -1061,8 +1216,20 @@
       <c r="K13" s="18" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L13" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="M13" s="7">
+        <v>3</v>
+      </c>
+      <c r="N13" s="15">
+        <v>8</v>
+      </c>
+      <c r="O13" s="9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1090,14 +1257,26 @@
       <c r="I14" s="15">
         <v>8</v>
       </c>
-      <c r="J14" s="9" t="s">
-        <v>21</v>
+      <c r="J14" s="9">
+        <v>2</v>
       </c>
       <c r="K14" s="18" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L14" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="M14" s="7">
+        <v>4</v>
+      </c>
+      <c r="N14" s="15">
+        <v>6</v>
+      </c>
+      <c r="O14" s="9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -1131,8 +1310,20 @@
       <c r="K15" s="18" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L15" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="M15" s="7">
+        <v>5</v>
+      </c>
+      <c r="N15" s="15">
+        <v>10</v>
+      </c>
+      <c r="O15" s="9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1166,33 +1357,51 @@
       <c r="K16" s="18" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D17" s="22" t="s">
+      <c r="L16" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="M16" s="27">
+        <v>4</v>
+      </c>
+      <c r="N16" s="10">
+        <v>10</v>
+      </c>
+      <c r="O16" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D17" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
       <c r="G17" s="2"/>
-      <c r="H17" s="23" t="s">
+      <c r="H17" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="M17" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="N17" s="25"/>
+      <c r="O17" s="25"/>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="D17:F17"/>
     <mergeCell ref="H17:J17"/>
+    <mergeCell ref="M17:O17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/МИТ.xlsx
+++ b/МИТ.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{816DD8DC-549E-40E1-9263-7FB593768642}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{4811621D-8140-4C7A-9D90-F59B635291B2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="17">
   <si>
     <t>Баишев Уйгун</t>
   </si>
@@ -78,7 +78,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="d/m;@"/>
+    <numFmt numFmtId="164" formatCode="d/m;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -244,7 +244,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -321,8 +321,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
@@ -334,18 +334,21 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -629,7 +632,7 @@
   <dimension ref="A1:N50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+      <selection activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -639,7 +642,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4">
@@ -663,21 +666,27 @@
       <c r="H1" s="4">
         <v>1</v>
       </c>
-      <c r="I1" s="21">
+      <c r="I1" s="5">
         <v>9</v>
       </c>
-      <c r="J1" s="18">
+      <c r="J1" s="6">
         <v>13</v>
       </c>
       <c r="K1" s="23">
         <v>0</v>
       </c>
-      <c r="L1" s="31"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="33"/>
+      <c r="L1" s="34">
+        <v>1</v>
+      </c>
+      <c r="M1" s="21">
+        <v>8</v>
+      </c>
+      <c r="N1" s="18">
+        <v>12</v>
+      </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="32" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="7">
@@ -710,12 +719,18 @@
       <c r="K2" s="24">
         <v>0</v>
       </c>
-      <c r="L2" s="34"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="36"/>
+      <c r="L2" s="13">
+        <v>1</v>
+      </c>
+      <c r="M2" s="19">
+        <v>7</v>
+      </c>
+      <c r="N2" s="14">
+        <v>15</v>
+      </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="32" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="10">
@@ -748,12 +763,18 @@
       <c r="K3" s="24">
         <v>2</v>
       </c>
-      <c r="L3" s="34"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="36"/>
+      <c r="L3" s="13">
+        <v>3</v>
+      </c>
+      <c r="M3" s="19">
+        <v>10</v>
+      </c>
+      <c r="N3" s="14">
+        <v>13</v>
+      </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="32" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="10">
@@ -765,13 +786,13 @@
       <c r="D4" s="12">
         <v>4</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="10">
         <v>2</v>
       </c>
-      <c r="F4" s="19">
+      <c r="F4" s="11">
         <v>3</v>
       </c>
-      <c r="G4" s="14">
+      <c r="G4" s="37">
         <v>13</v>
       </c>
       <c r="H4" s="13">
@@ -780,18 +801,24 @@
       <c r="I4" s="19">
         <v>9</v>
       </c>
-      <c r="J4" s="14">
+      <c r="J4" s="12">
         <v>11</v>
       </c>
       <c r="K4" s="24">
         <v>0</v>
       </c>
-      <c r="L4" s="34"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="36"/>
+      <c r="L4" s="13">
+        <v>1</v>
+      </c>
+      <c r="M4" s="19">
+        <v>6</v>
+      </c>
+      <c r="N4" s="14">
+        <v>11</v>
+      </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="41" t="s">
+      <c r="A5" s="32" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="10">
@@ -824,12 +851,18 @@
       <c r="K5" s="24">
         <v>4</v>
       </c>
-      <c r="L5" s="34"/>
-      <c r="M5" s="35"/>
-      <c r="N5" s="36"/>
+      <c r="L5" s="13">
+        <v>5</v>
+      </c>
+      <c r="M5" s="19">
+        <v>9</v>
+      </c>
+      <c r="N5" s="14">
+        <v>12</v>
+      </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="32" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="10">
@@ -862,12 +895,18 @@
       <c r="K6" s="24">
         <v>1</v>
       </c>
-      <c r="L6" s="34"/>
-      <c r="M6" s="35"/>
-      <c r="N6" s="36"/>
+      <c r="L6" s="13">
+        <v>5</v>
+      </c>
+      <c r="M6" s="19">
+        <v>7</v>
+      </c>
+      <c r="N6" s="14">
+        <v>15</v>
+      </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="32" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="10">
@@ -900,12 +939,18 @@
       <c r="K7" s="24">
         <v>2</v>
       </c>
-      <c r="L7" s="34"/>
-      <c r="M7" s="35"/>
-      <c r="N7" s="36"/>
+      <c r="L7" s="13">
+        <v>5</v>
+      </c>
+      <c r="M7" s="19">
+        <v>7</v>
+      </c>
+      <c r="N7" s="14">
+        <v>14</v>
+      </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="41" t="s">
+      <c r="A8" s="32" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="10">
@@ -938,12 +983,18 @@
       <c r="K8" s="24">
         <v>4</v>
       </c>
-      <c r="L8" s="34"/>
-      <c r="M8" s="35"/>
-      <c r="N8" s="36"/>
+      <c r="L8" s="13">
+        <v>3</v>
+      </c>
+      <c r="M8" s="19">
+        <v>9</v>
+      </c>
+      <c r="N8" s="14">
+        <v>13</v>
+      </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="32" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="10">
@@ -976,12 +1027,18 @@
       <c r="K9" s="24">
         <v>1</v>
       </c>
-      <c r="L9" s="34"/>
-      <c r="M9" s="35"/>
-      <c r="N9" s="36"/>
+      <c r="L9" s="13">
+        <v>3</v>
+      </c>
+      <c r="M9" s="19">
+        <v>6</v>
+      </c>
+      <c r="N9" s="14">
+        <v>13</v>
+      </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="41" t="s">
+      <c r="A10" s="32" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="10">
@@ -1014,12 +1071,18 @@
       <c r="K10" s="24">
         <v>0</v>
       </c>
-      <c r="L10" s="34"/>
-      <c r="M10" s="35"/>
-      <c r="N10" s="36"/>
+      <c r="L10" s="13">
+        <v>4</v>
+      </c>
+      <c r="M10" s="19">
+        <v>8</v>
+      </c>
+      <c r="N10" s="14">
+        <v>12</v>
+      </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="41" t="s">
+      <c r="A11" s="32" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="10">
@@ -1052,12 +1115,18 @@
       <c r="K11" s="24">
         <v>0</v>
       </c>
-      <c r="L11" s="34"/>
-      <c r="M11" s="35"/>
-      <c r="N11" s="36"/>
+      <c r="L11" s="13">
+        <v>4</v>
+      </c>
+      <c r="M11" s="19">
+        <v>10</v>
+      </c>
+      <c r="N11" s="14">
+        <v>14</v>
+      </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="32" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="13">
@@ -1090,12 +1159,18 @@
       <c r="K12" s="24">
         <v>1</v>
       </c>
-      <c r="L12" s="34"/>
-      <c r="M12" s="35"/>
-      <c r="N12" s="36"/>
+      <c r="L12" s="13">
+        <v>2</v>
+      </c>
+      <c r="M12" s="19">
+        <v>9</v>
+      </c>
+      <c r="N12" s="14">
+        <v>14</v>
+      </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="41" t="s">
+      <c r="A13" s="32" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="10">
@@ -1128,12 +1203,18 @@
       <c r="K13" s="24">
         <v>6</v>
       </c>
-      <c r="L13" s="34"/>
-      <c r="M13" s="35"/>
-      <c r="N13" s="36"/>
+      <c r="L13" s="13">
+        <v>2</v>
+      </c>
+      <c r="M13" s="19">
+        <v>8</v>
+      </c>
+      <c r="N13" s="14">
+        <v>15</v>
+      </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="41" t="s">
+      <c r="A14" s="32" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="10">
@@ -1166,12 +1247,18 @@
       <c r="K14" s="24">
         <v>1</v>
       </c>
-      <c r="L14" s="34"/>
-      <c r="M14" s="35"/>
-      <c r="N14" s="36"/>
+      <c r="L14" s="13">
+        <v>2</v>
+      </c>
+      <c r="M14" s="19">
+        <v>6</v>
+      </c>
+      <c r="N14" s="14">
+        <v>11</v>
+      </c>
     </row>
     <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="42" t="s">
+      <c r="A15" s="33" t="s">
         <v>14</v>
       </c>
       <c r="B15" s="15">
@@ -1204,9 +1291,15 @@
       <c r="K15" s="25">
         <v>0</v>
       </c>
-      <c r="L15" s="37"/>
-      <c r="M15" s="38"/>
-      <c r="N15" s="39"/>
+      <c r="L15" s="35">
+        <v>4</v>
+      </c>
+      <c r="M15" s="16">
+        <v>10</v>
+      </c>
+      <c r="N15" s="22">
+        <v>11</v>
+      </c>
     </row>
     <row r="17" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="27">
@@ -1235,7 +1328,7 @@
       <c r="K17" s="27"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="40" t="s">
+      <c r="A18" s="31" t="s">
         <v>0</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -1256,9 +1349,12 @@
       <c r="G18" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="H18" s="36" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="41" t="s">
+      <c r="A19" s="32" t="s">
         <v>1</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -1279,9 +1375,12 @@
       <c r="G19" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="H19" s="19" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="41" t="s">
+      <c r="A20" s="32" t="s">
         <v>2</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -1302,9 +1401,12 @@
       <c r="G20" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="H20" s="19" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="41" t="s">
+      <c r="A21" s="32" t="s">
         <v>3</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -1325,9 +1427,12 @@
       <c r="G21" s="8" t="s">
         <v>16</v>
       </c>
+      <c r="H21" s="19" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="41" t="s">
+      <c r="A22" s="32" t="s">
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -1348,9 +1453,12 @@
       <c r="G22" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="H22" s="19" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="41" t="s">
+      <c r="A23" s="32" t="s">
         <v>5</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -1371,9 +1479,12 @@
       <c r="G23" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="H23" s="19" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="41" t="s">
+      <c r="A24" s="32" t="s">
         <v>6</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -1394,9 +1505,12 @@
       <c r="G24" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="H24" s="19" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="41" t="s">
+      <c r="A25" s="32" t="s">
         <v>7</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -1417,9 +1531,12 @@
       <c r="G25" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="H25" s="19" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="41" t="s">
+      <c r="A26" s="32" t="s">
         <v>8</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -1440,9 +1557,12 @@
       <c r="G26" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="H26" s="19" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="41" t="s">
+      <c r="A27" s="32" t="s">
         <v>9</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -1463,9 +1583,12 @@
       <c r="G27" s="8" t="s">
         <v>16</v>
       </c>
+      <c r="H27" s="19" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="41" t="s">
+      <c r="A28" s="32" t="s">
         <v>10</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -1486,9 +1609,12 @@
       <c r="G28" s="8" t="s">
         <v>16</v>
       </c>
+      <c r="H28" s="30" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="41" t="s">
+      <c r="A29" s="32" t="s">
         <v>11</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -1509,9 +1635,12 @@
       <c r="G29" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="H29" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="41" t="s">
+      <c r="A30" s="32" t="s">
         <v>12</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -1532,9 +1661,12 @@
       <c r="G30" s="3" t="s">
         <v>15</v>
       </c>
+      <c r="H30" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="41" t="s">
+      <c r="A31" s="32" t="s">
         <v>13</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -1555,9 +1687,12 @@
       <c r="G31" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="H31" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="32" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="42" t="s">
+      <c r="A32" s="33" t="s">
         <v>14</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -1576,6 +1711,9 @@
         <v>15</v>
       </c>
       <c r="G32" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H32" s="1" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1595,12 +1733,14 @@
       <c r="H35" s="26"/>
       <c r="I35" s="26"/>
       <c r="J35" s="26"/>
-      <c r="K35" s="26"/>
+      <c r="K35" s="14">
+        <v>13</v>
+      </c>
       <c r="L35" s="26"/>
       <c r="M35" s="26"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="40" t="s">
+      <c r="A36" s="31" t="s">
         <v>0</v>
       </c>
       <c r="B36" s="28" t="s">
@@ -1614,7 +1754,7 @@
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" s="41" t="s">
+      <c r="A37" s="32" t="s">
         <v>1</v>
       </c>
       <c r="B37" s="28" t="s">
@@ -1628,7 +1768,7 @@
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" s="41" t="s">
+      <c r="A38" s="32" t="s">
         <v>2</v>
       </c>
       <c r="B38" s="28" t="s">
@@ -1642,7 +1782,7 @@
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" s="41" t="s">
+      <c r="A39" s="32" t="s">
         <v>3</v>
       </c>
       <c r="B39" s="28" t="s">
@@ -1656,7 +1796,7 @@
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="41" t="s">
+      <c r="A40" s="32" t="s">
         <v>4</v>
       </c>
       <c r="B40" s="28" t="s">
@@ -1670,7 +1810,7 @@
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" s="41" t="s">
+      <c r="A41" s="32" t="s">
         <v>5</v>
       </c>
       <c r="B41" s="28" t="s">
@@ -1684,7 +1824,7 @@
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" s="41" t="s">
+      <c r="A42" s="32" t="s">
         <v>6</v>
       </c>
       <c r="B42" s="28" t="s">
@@ -1698,7 +1838,7 @@
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A43" s="41" t="s">
+      <c r="A43" s="32" t="s">
         <v>7</v>
       </c>
       <c r="B43" s="28" t="s">
@@ -1712,7 +1852,7 @@
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A44" s="41" t="s">
+      <c r="A44" s="32" t="s">
         <v>8</v>
       </c>
       <c r="B44" s="28" t="s">
@@ -1726,7 +1866,7 @@
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A45" s="41" t="s">
+      <c r="A45" s="32" t="s">
         <v>9</v>
       </c>
       <c r="B45" s="28" t="s">
@@ -1740,7 +1880,7 @@
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" s="41" t="s">
+      <c r="A46" s="32" t="s">
         <v>10</v>
       </c>
       <c r="B46" s="28" t="s">
@@ -1754,7 +1894,7 @@
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A47" s="41" t="s">
+      <c r="A47" s="32" t="s">
         <v>11</v>
       </c>
       <c r="B47" s="29" t="s">
@@ -1768,7 +1908,7 @@
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48" s="41" t="s">
+      <c r="A48" s="32" t="s">
         <v>12</v>
       </c>
       <c r="B48" s="28" t="s">
@@ -1782,7 +1922,7 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="41" t="s">
+      <c r="A49" s="32" t="s">
         <v>13</v>
       </c>
       <c r="B49" s="28" t="s">
@@ -1796,7 +1936,7 @@
       </c>
     </row>
     <row r="50" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="42" t="s">
+      <c r="A50" s="33" t="s">
         <v>14</v>
       </c>
       <c r="B50" s="28" t="s">
